--- a/storage/app/private/athletes.xlsx
+++ b/storage/app/private/athletes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>first_name</t>
   </si>
@@ -300,6 +300,9 @@
     <t>Федорова</t>
   </si>
   <si>
+    <t>images/fedorova.jpg</t>
+  </si>
+  <si>
     <t>Софья</t>
   </si>
   <si>
@@ -376,6 +379,18 @@
   </si>
   <si>
     <t>images/tachiev.jpg</t>
+  </si>
+  <si>
+    <t>Владислав</t>
+  </si>
+  <si>
+    <t>Василенко</t>
+  </si>
+  <si>
+    <t>images/vasilenko.jpg</t>
+  </si>
+  <si>
+    <t>Нарткала</t>
   </si>
 </sst>
 </file>
@@ -932,7 +947,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="27.421875"/>
     <col customWidth="1" min="2" max="2" width="17.421875"/>
-    <col customWidth="1" min="3" max="4" width="18.421875"/>
+    <col customWidth="1" min="3" max="3" width="18.421875"/>
+    <col customWidth="1" min="4" max="4" width="30.57421875"/>
     <col customWidth="1" min="9" max="9" width="12.421875"/>
   </cols>
   <sheetData>
@@ -1440,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19" t="s">
         <v>26</v>
@@ -1497,6 +1513,9 @@
       <c r="G21" s="2">
         <v>0</v>
       </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
       <c r="I21" t="s">
         <v>85</v>
       </c>
@@ -1563,8 +1582,8 @@
       <c r="B24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>91</v>
+      <c r="D24" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -1584,13 +1603,13 @@
     </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -1613,13 +1632,13 @@
     </row>
     <row r="26" ht="14.25">
       <c r="A26" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -1639,13 +1658,13 @@
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1660,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
@@ -1671,10 +1690,10 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1686,42 +1705,42 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="3" t="s">
-        <v>108</v>
+      <c r="A29" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="3" t="s">
         <v>110</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="3" t="s">
-        <v>112</v>
+      <c r="A30" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="3" t="s">
         <v>114</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1734,17 +1753,17 @@
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="3" t="s">
-        <v>115</v>
+      <c r="A31" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="3" t="s">
         <v>117</v>
       </c>
+      <c r="D31" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="s">
         <v>85</v>
@@ -1754,22 +1773,42 @@
       </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="3" t="s">
-        <v>118</v>
+      <c r="A32" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="3" t="s">
         <v>120</v>
       </c>
+      <c r="D32" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" t="s">
         <v>41</v>
       </c>
       <c r="J32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" t="s">
         <v>14</v>
       </c>
     </row>
